--- a/reference Excel sheets/SchoolReport/classdetails.xlsx
+++ b/reference Excel sheets/SchoolReport/classdetails.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranajit jana\Documents\GitHub\examples\reference Excel sheets\SchoolReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6750FA-9BC9-4BB7-847C-4E360AFD42F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133A2DC-AE4D-4469-AEC0-15B3D3CBDDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xlauto" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -92,7 +90,7 @@
     <t>reportdir</t>
   </si>
   <si>
-    <t>C:\Users\ranajit jana\Documents\GitHub\examples\reference Excel sheets\SchoolReport</t>
+    <t>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport</t>
   </si>
 </sst>
 </file>
@@ -571,7 +569,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,7 +579,7 @@
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="4" width="5.6328125" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" customWidth="1"/>
-    <col min="6" max="6" width="79.90625" customWidth="1"/>
+    <col min="6" max="6" width="61.453125" customWidth="1"/>
     <col min="7" max="7" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/reference Excel sheets/SchoolReport/classdetails.xlsx
+++ b/reference Excel sheets/SchoolReport/classdetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133A2DC-AE4D-4469-AEC0-15B3D3CBDDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6295BAEB-918B-48FA-AD3A-85FAC9DC9FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>reportdir</t>
   </si>
   <si>
-    <t>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport</t>
+    <t>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\</t>
   </si>
 </sst>
 </file>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB75BDA-AC94-4AE5-BEF8-9804AAB56F0D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +580,7 @@
     <col min="4" max="4" width="5.6328125" customWidth="1"/>
     <col min="5" max="5" width="21.81640625" customWidth="1"/>
     <col min="6" max="6" width="61.453125" customWidth="1"/>
-    <col min="7" max="7" width="41.54296875" customWidth="1"/>
+    <col min="7" max="7" width="71.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -619,6 +619,10 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
+      <c r="G2" t="str">
+        <f>F2&amp;A2&amp;".html"</f>
+        <v>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\hm.html</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -633,6 +637,10 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G10" si="0">F3&amp;A3&amp;".html"</f>
+        <v>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\ad.html</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -647,6 +655,10 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\he.html</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -661,6 +673,10 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\db.html</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -675,6 +691,10 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\ga.html</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -689,6 +709,10 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\francis.html</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -703,6 +727,10 @@
       <c r="F8" t="s">
         <v>18</v>
       </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\wr.html</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -717,6 +745,10 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\da.html</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -730,6 +762,10 @@
       </c>
       <c r="F10" t="s">
         <v>18</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>C:\Users\ritup\projects\examples\reference Excel sheets\SchoolReport\qw.html</v>
       </c>
     </row>
   </sheetData>
